--- a/biology/Biologie cellulaire et moléculaire/Legionella_longbeachae/Legionella_longbeachae.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Legionella_longbeachae/Legionella_longbeachae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Legionella longbeachae  est une espèce de bactéries gram-négatives de la famille des Legionellaceae. C'est une bactérie tellurique qui se rencontre principalement dans le terreau et le compost[1]. Elle fait partie des espèces de cette famille qui sont susceptibles de provoquer une grave infection pulmonaire : la légionellose. Elle n'en est toutefois pas l'agent causal principal, qui est Legionella pneumophila.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Legionella longbeachae  est une espèce de bactéries gram-négatives de la famille des Legionellaceae. C'est une bactérie tellurique qui se rencontre principalement dans le terreau et le compost. Elle fait partie des espèces de cette famille qui sont susceptibles de provoquer une grave infection pulmonaire : la légionellose. Elle n'en est toutefois pas l'agent causal principal, qui est Legionella pneumophila.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Pathogénicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette bactérie est principalement à l'origine de légionelloses en Australie[2],[3],[4], mais plusieurs cas d'infections ont également été documentées dans d'autres pays comme les États-Unis[5], le Japon[6], la Grèce[7], le Royaume-Uni[8], mais aussi la France où de rares cas sont décrits sporadiquement (dont 1 en 2022)[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette bactérie est principalement à l'origine de légionelloses en Australie mais plusieurs cas d'infections ont également été documentées dans d'autres pays comme les États-Unis, le Japon, la Grèce, le Royaume-Uni, mais aussi la France où de rares cas sont décrits sporadiquement (dont 1 en 2022).
 Comme pour toutes les autres légionelles provoquant des infections pulmonaires, la transmission inter-humaine n'a jamais été décrite. Le mode de contamination est l'inhalation de poussières issues de terreaux contaminés lors d'activités de jardinage, ou de nettoyage d'outils de jardin.
 </t>
         </is>
@@ -543,11 +557,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Legionella longbeachae McKinney et al. 1982[10].
-Étymologie
-L'étymologie de l'épithète spécifique des L. longbeachae est liée au lieu d'isolement initial de cette bactérie : long.be’ach.ae. N.L. gen. neut. n. longbeachae, de Long Beach (California)[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Legionella longbeachae McKinney et al. 1982.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Legionella_longbeachae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Legionella_longbeachae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'épithète spécifique des L. longbeachae est liée au lieu d'isolement initial de cette bactérie : long.be’ach.ae. N.L. gen. neut. n. longbeachae, de Long Beach (California).
 </t>
         </is>
       </c>
